--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD27DB-EDCF-4701-A12A-F69EB4E552D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="238">
   <si>
     <t>No</t>
   </si>
@@ -699,16 +700,73 @@
   <si>
     <t>Analyzed nQGCare</t>
   </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Implement Product key in Sonia Application</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Master Page start working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue "ImeHandler" working in Soina Project </t>
+  </si>
+  <si>
+    <t>Master Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue "ImeHandler" fixed in Soina Project </t>
+  </si>
+  <si>
+    <t>Authorization,Session and Role</t>
+  </si>
+  <si>
+    <t>Source Code Merge and Deployment</t>
+  </si>
+  <si>
+    <t>Source Code Merge, Deployment and Bug fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Issues Fix </t>
+  </si>
+  <si>
+    <t>Testing Issues Fix, Vastu Master Log</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix  and New enhancement</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix</t>
+  </si>
+  <si>
+    <t>MrMax Testing and fixing Issue</t>
+  </si>
+  <si>
+    <t>SAW Discount issue looking</t>
+  </si>
+  <si>
+    <t>Homax Testing and fixing Issue</t>
+  </si>
+  <si>
+    <t>Sony upload and Export KT from Mohan San</t>
+  </si>
+  <si>
+    <t>Testing and fixing Issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,13 +811,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -792,6 +843,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -958,12 +1023,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1006,9 +1071,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1040,8 +1102,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1054,12 +1116,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1133,7 +1195,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1144,42 +1206,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1192,35 +1218,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1511,45 +1582,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1">
-      <c r="D2" s="25"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="47"/>
+      <c r="B5" s="46"/>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="49"/>
+      <c r="B6" s="48"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1630,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="13"/>
@@ -1568,13 +1639,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="G10" s="50"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="50">
         <v>44075</v>
       </c>
       <c r="C12" t="s">
@@ -1607,7 +1678,7 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="50">
         <v>44076</v>
       </c>
       <c r="C17" t="s">
@@ -1635,7 +1706,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="50">
         <v>44077</v>
       </c>
       <c r="C20" t="s">
@@ -1652,7 +1723,7 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="50">
         <v>44078</v>
       </c>
       <c r="C23" t="s">
@@ -1666,7 +1737,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1674,7 +1745,7 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="50">
         <v>44081</v>
       </c>
       <c r="C26" t="s">
@@ -1691,7 +1762,7 @@
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="50">
         <v>44082</v>
       </c>
       <c r="C28" t="s">
@@ -1713,7 +1784,7 @@
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="50">
         <v>44083</v>
       </c>
       <c r="C31" t="s">
@@ -1752,7 +1823,7 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="50">
         <v>44084</v>
       </c>
       <c r="C36" t="s">
@@ -1774,7 +1845,7 @@
       <c r="A39">
         <v>9</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="50">
         <v>44085</v>
       </c>
       <c r="C39" t="s">
@@ -1799,7 +1870,7 @@
       <c r="A42">
         <v>10</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="50">
         <v>44088</v>
       </c>
       <c r="C42" t="s">
@@ -1824,7 +1895,7 @@
       <c r="A45">
         <v>11</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="50">
         <v>44089</v>
       </c>
       <c r="C45" t="s">
@@ -1849,7 +1920,7 @@
       <c r="A48">
         <v>12</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="50">
         <v>44090</v>
       </c>
       <c r="C48" t="s">
@@ -1866,7 +1937,7 @@
       <c r="A50">
         <v>13</v>
       </c>
-      <c r="B50" s="51">
+      <c r="B50" s="50">
         <v>44091</v>
       </c>
       <c r="C50" t="s">
@@ -1883,7 +1954,7 @@
       <c r="A52">
         <v>14</v>
       </c>
-      <c r="B52" s="51">
+      <c r="B52" s="50">
         <v>44092</v>
       </c>
       <c r="C52" t="s">
@@ -1905,7 +1976,7 @@
       <c r="A55">
         <v>15</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="50">
         <v>44095</v>
       </c>
       <c r="C55" t="s">
@@ -1914,7 +1985,7 @@
       <c r="D55" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="50" t="s">
+      <c r="G55" s="49" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1927,7 +1998,7 @@
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="50">
         <v>44096</v>
       </c>
       <c r="C58" t="s">
@@ -1936,7 +2007,7 @@
       <c r="D58" t="s">
         <v>91</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1944,7 +2015,7 @@
       <c r="A60">
         <v>17</v>
       </c>
-      <c r="B60" s="51">
+      <c r="B60" s="50">
         <v>44097</v>
       </c>
       <c r="C60" t="s">
@@ -1958,32 +2029,32 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="90">
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G61" s="50" t="s">
+      <c r="G61" s="49" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75">
-      <c r="A64" s="24">
+      <c r="A64" s="23">
         <v>18</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="52">
         <v>44098</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D64" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="54" t="s">
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="53" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1991,7 +2062,7 @@
       <c r="A66">
         <v>19</v>
       </c>
-      <c r="B66" s="51">
+      <c r="B66" s="50">
         <v>44099</v>
       </c>
       <c r="C66" t="s">
@@ -2000,7 +2071,7 @@
       <c r="D66" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2033,7 +2104,7 @@
       <c r="A76">
         <v>20</v>
       </c>
-      <c r="B76" s="51">
+      <c r="B76" s="50">
         <v>44102</v>
       </c>
       <c r="C76" t="s">
@@ -2050,7 +2121,7 @@
       <c r="A78">
         <v>20</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="50">
         <v>44102</v>
       </c>
       <c r="C78" t="s">
@@ -2085,7 +2156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2094,14 +2165,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="94.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="94.7109375" style="27"/>
+    <col min="1" max="1" width="3.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="94.7109375" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2134,16 +2205,16 @@
       <c r="B2" s="16">
         <v>44075</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="15"/>
@@ -2155,229 +2226,229 @@
       <c r="B3" s="16">
         <v>44076</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" s="30" customFormat="1">
+    <row r="4" spans="1:7" s="29" customFormat="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="16">
         <v>44077</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="1:7" s="30" customFormat="1">
+      <c r="F4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" s="29" customFormat="1">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="16">
         <v>44078</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="1:7" s="30" customFormat="1">
+      <c r="F5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" s="29" customFormat="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="16">
         <v>44081</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" s="30" customFormat="1">
+      <c r="F6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7" s="29" customFormat="1">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="16">
         <v>44082</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" s="30" customFormat="1">
+      <c r="F7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7" s="29" customFormat="1">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="16">
         <v>44083</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" s="30" customFormat="1">
+      <c r="F8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" s="29" customFormat="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="16">
         <v>44084</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="17">
         <v>1</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" s="30" customFormat="1">
+      <c r="F9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" s="29" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="16">
         <v>44085</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" s="30" customFormat="1">
+      <c r="F10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" s="29" customFormat="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="16">
         <v>44088</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" s="30" customFormat="1">
+      <c r="F11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" s="29" customFormat="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="16">
         <v>44089</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="17">
         <v>1</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" s="30" customFormat="1">
+      <c r="F12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" s="29" customFormat="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="16">
         <v>44090</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="29"/>
+      <c r="F13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="15">
@@ -2386,19 +2457,19 @@
       <c r="B14" s="16">
         <v>44091</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="17">
         <v>1</v>
       </c>
-      <c r="F14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="29"/>
+      <c r="F14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="15">
@@ -2407,19 +2478,19 @@
       <c r="B15" s="16">
         <v>44092</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="29"/>
+      <c r="F15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="15">
@@ -2428,19 +2499,19 @@
       <c r="B16" s="16">
         <v>44095</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="29"/>
+      <c r="F16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="15">
@@ -2449,19 +2520,19 @@
       <c r="B17" s="16">
         <v>44096</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="29"/>
+      <c r="F17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="15">
@@ -2470,19 +2541,19 @@
       <c r="B18" s="16">
         <v>44097</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="29"/>
+      <c r="F18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="15">
@@ -2491,19 +2562,19 @@
       <c r="B19" s="16">
         <v>44098</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
       </c>
-      <c r="F19" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="29"/>
+      <c r="F19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="15">
@@ -2512,19 +2583,19 @@
       <c r="B20" s="16">
         <v>44099</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="17">
         <v>1</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="29"/>
+      <c r="F20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="28"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="15">
@@ -2533,54 +2604,54 @@
       <c r="B21" s="16">
         <v>44102</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="17">
         <v>1</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="29"/>
+      <c r="F21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="G22" s="30"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="32"/>
-      <c r="C24" s="27" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="33"/>
-      <c r="C25" s="27" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="34"/>
-      <c r="C26" s="27" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="35"/>
-      <c r="C27" s="27" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2591,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2702,11 +2773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2730,85 +2801,1026 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="65">
+        <v>44046</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="65">
+        <v>44046</v>
+      </c>
+      <c r="C3" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
-    <row r="9" spans="1:7" s="1" customFormat="1"/>
-    <row r="10" spans="1:7" s="1" customFormat="1"/>
-    <row r="11" spans="1:7" s="1" customFormat="1"/>
-    <row r="12" spans="1:7" s="1" customFormat="1"/>
-    <row r="13" spans="1:7" s="1" customFormat="1"/>
-    <row r="14" spans="1:7" s="1" customFormat="1"/>
-    <row r="15" spans="1:7" s="1" customFormat="1"/>
-    <row r="16" spans="1:7" s="1" customFormat="1"/>
-    <row r="17" spans="2:3" s="1" customFormat="1"/>
-    <row r="18" spans="2:3" s="1" customFormat="1"/>
-    <row r="19" spans="2:3" s="1" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="9" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="65">
+        <v>44047</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="65">
+        <v>44047</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
+      <c r="B6" s="65">
+        <v>44048</v>
+      </c>
+      <c r="C6" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="65">
+        <v>44048</v>
+      </c>
+      <c r="C7" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
+      <c r="B8" s="65">
+        <v>44049</v>
+      </c>
+      <c r="C8" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="4">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="65">
+        <v>44050</v>
+      </c>
+      <c r="C9" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
+      <c r="B10" s="65">
+        <v>44053</v>
+      </c>
+      <c r="C10" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="4">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="65">
+        <v>44054</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="4">
+        <v>75</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="65">
+        <v>44055</v>
+      </c>
+      <c r="C12" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="4">
+        <v>100</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="65">
+        <v>44056</v>
+      </c>
+      <c r="C13" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="4">
+        <v>100</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="65">
+        <v>44056</v>
+      </c>
+      <c r="C14" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="4">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="65">
+        <v>44057</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="4">
+        <v>100</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="65">
+        <v>44060</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="4">
+        <v>100</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.75">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="65">
+        <v>44061</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.75">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="65">
+        <v>44062</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.75">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="65">
+        <v>44063</v>
+      </c>
+      <c r="C19" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="4">
+        <v>100</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="65">
+        <v>44064</v>
+      </c>
+      <c r="C20" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="4">
+        <v>100</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="65">
+        <v>44067</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="4">
+        <v>100</v>
+      </c>
+      <c r="F21" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="65">
+        <v>44068</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="4">
+        <v>100</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="65">
+        <v>44069</v>
+      </c>
+      <c r="C23" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="65">
+        <v>44070</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E24" s="4">
+        <v>100</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="65">
+        <v>44071</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="4">
+        <v>100</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="65">
+        <v>44074</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="4">
+        <v>100</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="65">
+        <v>44075</v>
+      </c>
+      <c r="C27" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100</v>
+      </c>
+      <c r="F27" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="65">
+        <v>44076</v>
+      </c>
+      <c r="C28" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="4">
+        <v>100</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="65">
+        <v>44077</v>
+      </c>
+      <c r="C29" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="4">
+        <v>100</v>
+      </c>
+      <c r="F29" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="65">
+        <v>44078</v>
+      </c>
+      <c r="C30" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="4">
+        <v>100</v>
+      </c>
+      <c r="F30" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="65">
+        <v>44081</v>
+      </c>
+      <c r="C31" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+      <c r="F31" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="65">
+        <v>44082</v>
+      </c>
+      <c r="C32" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="4">
+        <v>100</v>
+      </c>
+      <c r="F32" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="65">
+        <v>44082</v>
+      </c>
+      <c r="C33" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="4">
+        <v>100</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="65">
+        <v>44082</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="113" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="4">
+        <v>100</v>
+      </c>
+      <c r="F34" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="65">
+        <v>44083</v>
+      </c>
+      <c r="C35" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E35" s="4">
+        <v>100</v>
+      </c>
+      <c r="F35" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="65">
+        <v>44084</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="4">
+        <v>100</v>
+      </c>
+      <c r="F36" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="65">
+        <v>44088</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" s="113" t="s">
+        <v>235</v>
+      </c>
+      <c r="E37" s="4">
+        <v>100</v>
+      </c>
+      <c r="F37" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="65">
+        <v>44088</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="113" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="4">
+        <v>100</v>
+      </c>
+      <c r="F38" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="65">
+        <v>44089</v>
+      </c>
+      <c r="C39" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" s="4">
+        <v>100</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="65">
+        <v>44090</v>
+      </c>
+      <c r="C40" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="4">
+        <v>100</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="65">
+        <v>44091</v>
+      </c>
+      <c r="C41" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E41" s="4">
+        <v>100</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="65">
+        <v>44092</v>
+      </c>
+      <c r="C42" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="4">
+        <v>100</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="65">
+        <v>44095</v>
+      </c>
+      <c r="C43" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="4">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="65">
+        <v>44096</v>
+      </c>
+      <c r="C44" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="113" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="4">
+        <v>100</v>
+      </c>
+      <c r="F44" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="65">
+        <v>44097</v>
+      </c>
+      <c r="C45" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="4">
+        <v>25</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="65">
+        <v>44098</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="4">
+        <v>65</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="65">
+        <v>44099</v>
+      </c>
+      <c r="C47" s="112" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="4">
+        <v>100</v>
+      </c>
+      <c r="F47" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="65">
+        <v>44100</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="4">
+        <v>50</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="65">
+        <v>44101</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="4">
+        <v>100</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2817,7 +3829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2928,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2941,7 +3953,7 @@
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="73" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="72" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
@@ -2959,7 +3971,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2973,7 +3985,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="65">
         <v>44075</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2982,10 +3994,10 @@
       <c r="D2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="71">
-        <v>1</v>
-      </c>
-      <c r="F2" s="77" t="s">
+      <c r="E2" s="70">
+        <v>1</v>
+      </c>
+      <c r="F2" s="76" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2996,7 +4008,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="65">
         <v>44076</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3005,7 +4017,7 @@
       <c r="D3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="70">
         <v>0.8</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -3017,16 +4029,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="66">
         <v>44077</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="71">
         <v>0.4</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -3034,10 +4046,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="80">
+      <c r="A5" s="79">
         <v>4</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="66">
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3046,7 +4058,7 @@
       <c r="D5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="71">
         <v>0.8</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -3054,10 +4066,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="80">
+      <c r="A6" s="79">
         <v>5</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="66">
         <v>44081</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3066,7 +4078,7 @@
       <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <v>0.6</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -3074,10 +4086,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <v>6</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="66">
         <v>44082</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3086,7 +4098,7 @@
       <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="71">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3094,10 +4106,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <v>7</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="66">
         <v>44083</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3106,7 +4118,7 @@
       <c r="D8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="71">
         <v>0.4</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -3114,10 +4126,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="80">
-        <v>8</v>
-      </c>
-      <c r="B9" s="67">
+      <c r="A9" s="79">
+        <v>8</v>
+      </c>
+      <c r="B9" s="66">
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3126,7 +4138,7 @@
       <c r="D9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="71">
         <v>0.6</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -3134,10 +4146,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <v>9</v>
       </c>
-      <c r="B10" s="67">
+      <c r="B10" s="66">
         <v>44085</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3146,7 +4158,7 @@
       <c r="D10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="71">
         <v>0.8</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -3157,10 +4169,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="80">
+      <c r="A11" s="79">
         <v>10</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="66">
         <v>44088</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3169,7 +4181,7 @@
       <c r="D11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="71">
         <v>0.6</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -3177,10 +4189,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="80">
+      <c r="A12" s="79">
         <v>11</v>
       </c>
-      <c r="B12" s="67">
+      <c r="B12" s="66">
         <v>44089</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3189,7 +4201,7 @@
       <c r="D12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="71">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3197,10 +4209,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="80">
+      <c r="A13" s="79">
         <v>12</v>
       </c>
-      <c r="B13" s="67">
+      <c r="B13" s="66">
         <v>44090</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3209,7 +4221,7 @@
       <c r="D13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="71">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3217,10 +4229,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="80">
+      <c r="A14" s="79">
         <v>13</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="66">
         <v>44091</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3229,7 +4241,7 @@
       <c r="D14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="71">
         <v>0.7</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -3237,19 +4249,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="80">
+      <c r="A15" s="79">
         <v>14</v>
       </c>
-      <c r="B15" s="68">
+      <c r="B15" s="67">
         <v>44092</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="78" t="s">
         <v>154</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="71">
+      <c r="E15" s="70">
         <v>0.8</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -3257,19 +4269,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="80">
+      <c r="A16" s="79">
         <v>15</v>
       </c>
-      <c r="B16" s="67">
+      <c r="B16" s="66">
         <v>44093</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="71">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3277,10 +4289,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="80">
+      <c r="A17" s="79">
         <v>16</v>
       </c>
-      <c r="B17" s="68">
+      <c r="B17" s="67">
         <v>44095</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3289,7 +4301,7 @@
       <c r="D17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="70">
         <v>0.7</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -3297,19 +4309,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A18" s="80">
+      <c r="A18" s="79">
         <v>17</v>
       </c>
-      <c r="B18" s="67">
+      <c r="B18" s="66">
         <v>44096</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="71">
         <v>0.7</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -3317,10 +4329,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="80">
+      <c r="A19" s="79">
         <v>18</v>
       </c>
-      <c r="B19" s="67">
+      <c r="B19" s="66">
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3329,7 +4341,7 @@
       <c r="D19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="71">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3345,16 +4357,16 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="50">
         <v>44098</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>154</v>
       </c>
       <c r="D21" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="73">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3366,7 +4378,7 @@
       <c r="D22" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="73">
         <v>0.6</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -3377,7 +4389,7 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="76">
+      <c r="B23" s="75">
         <v>44099</v>
       </c>
       <c r="C23" t="s">
@@ -3386,7 +4398,7 @@
       <c r="D23" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="73">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3397,7 +4409,7 @@
       <c r="D24" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="73">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3408,7 +4420,7 @@
       <c r="D25" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="73">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3419,16 +4431,16 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="76">
+      <c r="B27" s="75">
         <v>44102</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="73">
         <v>0.5</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -3442,11 +4454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3461,25 +4473,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3490,16 +4502,16 @@
       <c r="B2" s="19">
         <v>44075</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4"/>
@@ -3511,16 +4523,16 @@
       <c r="B3" s="19">
         <v>44076</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
@@ -3532,16 +4544,16 @@
       <c r="B4" s="19">
         <v>44077</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>115</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
@@ -3553,16 +4565,16 @@
       <c r="B5" s="19">
         <v>44078</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>117</v>
       </c>
       <c r="E5" s="21">
         <v>0.4</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
@@ -3574,16 +4586,16 @@
       <c r="B6" s="19">
         <v>44081</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>118</v>
       </c>
       <c r="E6" s="21">
         <v>0.75</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="4"/>
@@ -3595,16 +4607,16 @@
       <c r="B7" s="19">
         <v>44082</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="21">
         <v>0.85</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="4"/>
@@ -3616,16 +4628,16 @@
       <c r="B8" s="19">
         <v>44083</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>120</v>
       </c>
       <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
@@ -3637,16 +4649,16 @@
       <c r="B9" s="19">
         <v>44084</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>121</v>
       </c>
       <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4"/>
@@ -3658,16 +4670,16 @@
       <c r="B10" s="19">
         <v>44085</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="21">
         <v>0.7</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="4"/>
@@ -3679,16 +4691,16 @@
       <c r="B11" s="19">
         <v>44088</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="21">
         <v>0.75</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="4"/>
@@ -3700,16 +4712,16 @@
       <c r="B12" s="19">
         <v>44089</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="21">
         <v>0.8</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="4"/>
@@ -3721,16 +4733,16 @@
       <c r="B13" s="19">
         <v>44090</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="56" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="21">
         <v>0.85</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="4"/>
@@ -3742,16 +4754,16 @@
       <c r="B14" s="19">
         <v>44091</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="21">
         <v>0.95</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="4"/>
@@ -3763,16 +4775,16 @@
       <c r="B15" s="19">
         <v>44092</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>125</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="58" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
@@ -3784,16 +4796,16 @@
       <c r="B16" s="19">
         <v>44095</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="21">
         <v>0.6</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="4"/>
@@ -3805,16 +4817,16 @@
       <c r="B17" s="19">
         <v>44096</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>129</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="4"/>
@@ -3826,10 +4838,10 @@
       <c r="B18" s="19">
         <v>44097</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="56" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="21">
@@ -3847,16 +4859,16 @@
       <c r="B19" s="19">
         <v>44098</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>133</v>
       </c>
       <c r="E19" s="21">
         <v>0.35</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="4"/>
@@ -3868,16 +4880,16 @@
       <c r="B20" s="19">
         <v>44099</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="21">
         <v>0.7</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="59" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="4"/>
@@ -3886,13 +4898,13 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="21">
@@ -3904,32 +4916,32 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="48"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="48"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="47"/>
+      <c r="B25" s="46"/>
       <c r="C25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="49"/>
+      <c r="B26" s="48"/>
       <c r="C26" t="s">
         <v>7</v>
       </c>
@@ -3953,11 +4965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3995,487 +5007,487 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="98">
-        <v>1</v>
-      </c>
-      <c r="B2" s="102">
+      <c r="A2" s="85">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89">
         <v>44075</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="100">
-        <v>1</v>
-      </c>
-      <c r="F2" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="98"/>
+      <c r="E2" s="87">
+        <v>1</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="98">
+      <c r="A3" s="85">
         <v>2</v>
       </c>
-      <c r="B3" s="102">
+      <c r="B3" s="89">
         <v>44076</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="100">
-        <v>1</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="98"/>
+      <c r="E3" s="87">
+        <v>1</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="98">
+      <c r="A4" s="85">
         <v>3</v>
       </c>
-      <c r="B4" s="102">
+      <c r="B4" s="89">
         <v>44077</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="105">
+      <c r="E4" s="92">
         <v>0.5</v>
       </c>
-      <c r="F4" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="98"/>
+      <c r="F4" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="98">
+      <c r="A5" s="85">
         <v>4</v>
       </c>
-      <c r="B5" s="102">
+      <c r="B5" s="89">
         <v>44078</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="100">
-        <v>1</v>
-      </c>
-      <c r="F5" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="98"/>
+      <c r="E5" s="87">
+        <v>1</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="98">
+      <c r="A6" s="85">
         <v>5</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="89">
         <v>44079</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="108"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="98">
+      <c r="A7" s="85">
         <v>6</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="89">
         <v>44049</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="98">
+      <c r="A8" s="85">
         <v>7</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="89">
         <v>44081</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="100">
-        <v>1</v>
-      </c>
-      <c r="F8" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="98"/>
+      <c r="E8" s="87">
+        <v>1</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="98">
-        <v>8</v>
-      </c>
-      <c r="B9" s="102">
+      <c r="A9" s="85">
+        <v>8</v>
+      </c>
+      <c r="B9" s="89">
         <v>44082</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="100">
-        <v>1</v>
-      </c>
-      <c r="F9" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="98"/>
+      <c r="E9" s="87">
+        <v>1</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="98">
+      <c r="A10" s="85">
         <v>9</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="89">
         <v>44083</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="E10" s="100">
-        <v>1</v>
-      </c>
-      <c r="F10" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="98"/>
+      <c r="E10" s="87">
+        <v>1</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="98">
+      <c r="A11" s="85">
         <v>10</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="89">
         <v>44084</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="100">
-        <v>1</v>
-      </c>
-      <c r="F11" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="98"/>
+      <c r="E11" s="87">
+        <v>1</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="98">
+      <c r="A12" s="85">
         <v>11</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="89">
         <v>44085</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="E12" s="100">
-        <v>1</v>
-      </c>
-      <c r="F12" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="98"/>
+      <c r="E12" s="87">
+        <v>1</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="98">
+      <c r="A13" s="85">
         <v>12</v>
       </c>
-      <c r="B13" s="102">
+      <c r="B13" s="89">
         <v>44086</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="108"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="98">
+      <c r="A14" s="85">
         <v>13</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="89">
         <v>44087</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="98">
+      <c r="A15" s="85">
         <v>14</v>
       </c>
-      <c r="B15" s="102">
+      <c r="B15" s="89">
         <v>44088</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="100">
-        <v>1</v>
-      </c>
-      <c r="F15" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="98"/>
+      <c r="E15" s="87">
+        <v>1</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="98">
+      <c r="A16" s="85">
         <v>15</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="89">
         <v>44089</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="E16" s="100">
-        <v>1</v>
-      </c>
-      <c r="F16" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="98"/>
+      <c r="E16" s="87">
+        <v>1</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="85"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1">
-      <c r="A17" s="98">
+      <c r="A17" s="85">
         <v>16</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="89">
         <v>44090</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="100">
-        <v>1</v>
-      </c>
-      <c r="F17" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="98"/>
+      <c r="E17" s="87">
+        <v>1</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1">
-      <c r="A18" s="98">
+      <c r="A18" s="85">
         <v>17</v>
       </c>
-      <c r="B18" s="102">
+      <c r="B18" s="89">
         <v>44091</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="100">
-        <v>1</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="98"/>
+      <c r="E18" s="87">
+        <v>1</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="85"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1">
-      <c r="A19" s="98">
+      <c r="A19" s="85">
         <v>18</v>
       </c>
-      <c r="B19" s="102">
+      <c r="B19" s="89">
         <v>44092</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="100">
-        <v>1</v>
-      </c>
-      <c r="F19" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="98"/>
+      <c r="E19" s="87">
+        <v>1</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="98">
+      <c r="A20" s="85">
         <v>19</v>
       </c>
-      <c r="B20" s="102">
+      <c r="B20" s="89">
         <v>44093</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="95"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="98">
+      <c r="A21" s="85">
         <v>20</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="89">
         <v>44094</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="111"/>
-    </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="98">
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="85">
         <v>21</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="89">
         <v>44095</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="90" t="s">
         <v>215</v>
       </c>
-      <c r="E22" s="100">
-        <v>1</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="98"/>
+      <c r="E22" s="87">
+        <v>1</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="98">
+      <c r="A23" s="85">
         <v>22</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="89">
         <v>44096</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="103" t="s">
+      <c r="D23" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="105">
-        <v>1</v>
-      </c>
-      <c r="F23" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="98"/>
+      <c r="E23" s="92">
+        <v>1</v>
+      </c>
+      <c r="F23" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="98">
+      <c r="A24" s="85">
         <v>23</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="89">
         <v>44097</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="100">
-        <v>1</v>
-      </c>
-      <c r="F24" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="98"/>
+      <c r="E24" s="87">
+        <v>1</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="85"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="98">
+      <c r="A25" s="85">
         <v>24</v>
       </c>
-      <c r="B25" s="102">
+      <c r="B25" s="89">
         <v>44098</v>
       </c>
-      <c r="C25" s="103" t="s">
+      <c r="C25" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="90" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="100">
-        <v>1</v>
-      </c>
-      <c r="F25" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="98"/>
+      <c r="E25" s="87">
+        <v>1</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="85"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="98">
+      <c r="A26" s="85">
         <v>25</v>
       </c>
-      <c r="B26" s="102">
+      <c r="B26" s="89">
         <v>44099</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="100">
-        <v>1</v>
-      </c>
-      <c r="F26" s="99" t="s">
+      <c r="E26" s="87">
+        <v>1</v>
+      </c>
+      <c r="F26" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="98"/>
+      <c r="G26" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4489,10 +5501,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4537,16 +5549,16 @@
       <c r="B2" s="19">
         <v>44075</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>171</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4"/>
@@ -4558,16 +5570,16 @@
       <c r="B3" s="19">
         <v>44076</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="80" t="s">
         <v>173</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
@@ -4579,16 +5591,16 @@
       <c r="B4" s="19">
         <v>44077</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="83">
+      <c r="E4" s="82">
         <v>0.5</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="83" t="s">
         <v>176</v>
       </c>
       <c r="G4" s="4"/>
@@ -4600,16 +5612,16 @@
       <c r="B5" s="19">
         <v>44078</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>177</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4"/>
@@ -4621,13 +5633,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -4636,11 +5648,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="91"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="45">
       <c r="A8" s="4">
@@ -4649,16 +5661,16 @@
       <c r="B8" s="19">
         <v>44081</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="54" t="s">
         <v>180</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
@@ -4670,16 +5682,16 @@
       <c r="B9" s="19">
         <v>44082</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>181</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4"/>
@@ -4691,16 +5703,16 @@
       <c r="B10" s="19">
         <v>44083</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>183</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="4"/>
@@ -4712,16 +5724,16 @@
       <c r="B11" s="19">
         <v>44084</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="54" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="4"/>
@@ -4733,16 +5745,16 @@
       <c r="B12" s="19">
         <v>44085</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="54" t="s">
         <v>185</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="4"/>
@@ -4754,13 +5766,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -4769,11 +5781,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
       <c r="A15" s="4">
@@ -4782,16 +5794,16 @@
       <c r="B15" s="19">
         <v>44088</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>187</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
@@ -4803,16 +5815,16 @@
       <c r="B16" s="19">
         <v>44089</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>188</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4"/>
@@ -4824,16 +5836,16 @@
       <c r="B17" s="19">
         <v>44090</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>189</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="4"/>
@@ -4845,16 +5857,16 @@
       <c r="B18" s="19">
         <v>44091</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="54" t="s">
         <v>190</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="4"/>
@@ -4866,16 +5878,16 @@
       <c r="B19" s="19">
         <v>44092</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>191</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="4"/>
@@ -4887,13 +5899,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -4902,11 +5914,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="60">
       <c r="A22" s="4">
@@ -4915,16 +5927,16 @@
       <c r="B22" s="19">
         <v>44095</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>193</v>
       </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="82" t="s">
+      <c r="F22" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4"/>
@@ -4936,16 +5948,16 @@
       <c r="B23" s="19">
         <v>44096</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="82">
         <v>0.5</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="84" t="s">
         <v>176</v>
       </c>
       <c r="G23" s="4"/>
@@ -4957,16 +5969,16 @@
       <c r="B24" s="19">
         <v>44097</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>196</v>
       </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="4"/>
@@ -4978,16 +5990,16 @@
       <c r="B25" s="19">
         <v>44098</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="82" t="s">
+      <c r="F25" s="81" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="4"/>
@@ -4999,16 +6011,16 @@
       <c r="B26" s="19">
         <v>44099</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>199</v>
       </c>
       <c r="E26" s="6">
         <v>0.5</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="84" t="s">
         <v>176</v>
       </c>
       <c r="G26" s="4"/>
@@ -5060,7 +6072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5079,25 +6091,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5111,11 +6123,11 @@
       <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="4"/>
@@ -5130,11 +6142,11 @@
       <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="4"/>
@@ -5149,11 +6161,11 @@
       <c r="C4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
@@ -5168,11 +6180,11 @@
       <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="45" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
@@ -5184,12 +6196,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="94"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -5199,10 +6211,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -5215,11 +6227,11 @@
       <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
@@ -5234,11 +6246,11 @@
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="45" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4"/>
@@ -5253,11 +6265,11 @@
       <c r="C10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="4"/>
@@ -5272,11 +6284,11 @@
       <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="45" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="4"/>
@@ -5291,11 +6303,11 @@
       <c r="C12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="4"/>
@@ -5307,12 +6319,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -5322,10 +6334,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -5338,11 +6350,11 @@
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="4"/>
@@ -5357,11 +6369,11 @@
       <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="4"/>
@@ -5376,11 +6388,11 @@
       <c r="C17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="45" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="4"/>
@@ -5395,11 +6407,11 @@
       <c r="C18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44" t="s">
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="4"/>
@@ -5414,11 +6426,11 @@
       <c r="C19" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="4"/>
@@ -5430,12 +6442,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -5445,10 +6457,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
@@ -5461,11 +6473,11 @@
       <c r="C22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="4"/>
@@ -5480,11 +6492,11 @@
       <c r="C23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="4"/>
@@ -5499,11 +6511,11 @@
       <c r="C24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="42"/>
+      <c r="F24" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="4"/>
@@ -5518,11 +6530,11 @@
       <c r="C25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="4"/>
@@ -5537,29 +6549,29 @@
       <c r="C26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="45" t="s">
+      <c r="E26" s="42"/>
+      <c r="F26" s="44" t="s">
         <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="47"/>
+      <c r="C30" s="46"/>
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="48"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="C31" s="49"/>
+      <c r="C31" s="48"/>
       <c r="D31" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +6600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD27DB-EDCF-4701-A12A-F69EB4E552D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA5920B-BB6F-4E88-AEAD-36B0E81DE4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>Testing and fixing Issue</t>
+  </si>
+  <si>
+    <t>nMvar_clct</t>
   </si>
 </sst>
 </file>
@@ -1224,6 +1227,15 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,15 +1289,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1570,15 +1573,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1972,7 +1975,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="45">
+    <row r="55" spans="1:7" ht="28.8">
       <c r="A55">
         <v>15</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="45">
+    <row r="58" spans="1:7" ht="28.8">
       <c r="A58">
         <v>16</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="90">
+    <row r="61" spans="1:7" ht="86.4">
       <c r="C61" s="23" t="s">
         <v>94</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="75">
+    <row r="64" spans="1:7" ht="72">
       <c r="A64" s="23">
         <v>18</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30">
+    <row r="66" spans="1:7" ht="28.8">
       <c r="A66">
         <v>19</v>
       </c>
@@ -2163,16 +2166,16 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="94.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="94.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="94.7109375" style="26"/>
+    <col min="1" max="1" width="3.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="94.6640625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2669,15 +2672,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2776,19 +2779,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2821,7 +2824,7 @@
       <c r="B2" s="65">
         <v>44046</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="93" t="s">
         <v>219</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2842,7 +2845,7 @@
       <c r="B3" s="65">
         <v>44046</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -2863,7 +2866,7 @@
       <c r="B4" s="65">
         <v>44047</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="93" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -2884,7 +2887,7 @@
       <c r="B5" s="65">
         <v>44047</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2905,7 +2908,7 @@
       <c r="B6" s="65">
         <v>44048</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="93" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2926,7 +2929,7 @@
       <c r="B7" s="65">
         <v>44048</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -2947,7 +2950,7 @@
       <c r="B8" s="65">
         <v>44049</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2968,7 +2971,7 @@
       <c r="B9" s="65">
         <v>44050</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -2989,7 +2992,7 @@
       <c r="B10" s="65">
         <v>44053</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3010,7 +3013,7 @@
       <c r="B11" s="65">
         <v>44054</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -3031,7 +3034,7 @@
       <c r="B12" s="65">
         <v>44055</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -3052,7 +3055,7 @@
       <c r="B13" s="65">
         <v>44056</v>
       </c>
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -3073,7 +3076,7 @@
       <c r="B14" s="65">
         <v>44056</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -3094,7 +3097,7 @@
       <c r="B15" s="65">
         <v>44057</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="94" t="s">
         <v>221</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -3108,17 +3111,17 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="65">
         <v>44060</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E16" s="4">
@@ -3129,17 +3132,17 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="65">
         <v>44061</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E17" s="4">
@@ -3150,17 +3153,17 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="65">
         <v>44062</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E18" s="4">
@@ -3171,17 +3174,17 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="65">
         <v>44063</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E19" s="4">
@@ -3192,17 +3195,17 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="65">
         <v>44064</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E20" s="4">
@@ -3213,17 +3216,17 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="65">
         <v>44067</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="95" t="s">
         <v>230</v>
       </c>
       <c r="E21" s="4">
@@ -3234,17 +3237,17 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75">
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="65">
         <v>44068</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="95" t="s">
         <v>230</v>
       </c>
       <c r="E22" s="4">
@@ -3255,17 +3258,17 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="65">
         <v>44069</v>
       </c>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="113" t="s">
+      <c r="D23" s="95" t="s">
         <v>230</v>
       </c>
       <c r="E23" s="4">
@@ -3276,17 +3279,17 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="65">
         <v>44070</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="113" t="s">
+      <c r="D24" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E24" s="4">
@@ -3297,17 +3300,17 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75">
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="65">
         <v>44071</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="113" t="s">
+      <c r="D25" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E25" s="4">
@@ -3318,17 +3321,17 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75">
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="65">
         <v>44074</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E26" s="4">
@@ -3339,17 +3342,17 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="65">
         <v>44075</v>
       </c>
-      <c r="C27" s="112" t="s">
+      <c r="C27" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="113" t="s">
+      <c r="D27" s="95" t="s">
         <v>229</v>
       </c>
       <c r="E27" s="4">
@@ -3360,17 +3363,17 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="65">
         <v>44076</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D28" s="113" t="s">
+      <c r="D28" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E28" s="4">
@@ -3381,17 +3384,17 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="65">
         <v>44077</v>
       </c>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E29" s="4">
@@ -3402,17 +3405,17 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="65">
         <v>44078</v>
       </c>
-      <c r="C30" s="112" t="s">
+      <c r="C30" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="113" t="s">
+      <c r="D30" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E30" s="4">
@@ -3423,17 +3426,17 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="65">
         <v>44081</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E31" s="4">
@@ -3444,17 +3447,17 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="65">
         <v>44082</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="95" t="s">
         <v>232</v>
       </c>
       <c r="E32" s="4">
@@ -3465,17 +3468,17 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="65">
         <v>44082</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="113" t="s">
+      <c r="D33" s="95" t="s">
         <v>233</v>
       </c>
       <c r="E33" s="4">
@@ -3486,17 +3489,17 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="65">
         <v>44082</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="113" t="s">
+      <c r="D34" s="95" t="s">
         <v>234</v>
       </c>
       <c r="E34" s="4">
@@ -3507,17 +3510,17 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="65">
         <v>44083</v>
       </c>
-      <c r="C35" s="112" t="s">
+      <c r="C35" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="113" t="s">
+      <c r="D35" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E35" s="4">
@@ -3528,17 +3531,17 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="15.6">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="65">
         <v>44084</v>
       </c>
-      <c r="C36" s="112" t="s">
+      <c r="C36" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D36" s="113" t="s">
+      <c r="D36" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E36" s="4">
@@ -3549,17 +3552,17 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="15.6">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="65">
         <v>44088</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="113" t="s">
+      <c r="D37" s="95" t="s">
         <v>235</v>
       </c>
       <c r="E37" s="4">
@@ -3570,17 +3573,17 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="65">
         <v>44088</v>
       </c>
-      <c r="C38" s="112" t="s">
+      <c r="C38" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="113" t="s">
+      <c r="D38" s="95" t="s">
         <v>236</v>
       </c>
       <c r="E38" s="4">
@@ -3591,17 +3594,17 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="65">
         <v>44089</v>
       </c>
-      <c r="C39" s="112" t="s">
+      <c r="C39" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="113" t="s">
+      <c r="D39" s="95" t="s">
         <v>237</v>
       </c>
       <c r="E39" s="4">
@@ -3612,17 +3615,17 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="65">
         <v>44090</v>
       </c>
-      <c r="C40" s="112" t="s">
+      <c r="C40" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="113" t="s">
+      <c r="D40" s="95" t="s">
         <v>237</v>
       </c>
       <c r="E40" s="4">
@@ -3633,17 +3636,17 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
+    <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="65">
         <v>44091</v>
       </c>
-      <c r="C41" s="112" t="s">
+      <c r="C41" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="113" t="s">
+      <c r="D41" s="95" t="s">
         <v>237</v>
       </c>
       <c r="E41" s="4">
@@ -3654,17 +3657,17 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="65">
         <v>44092</v>
       </c>
-      <c r="C42" s="112" t="s">
+      <c r="C42" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="113" t="s">
+      <c r="D42" s="95" t="s">
         <v>237</v>
       </c>
       <c r="E42" s="4">
@@ -3675,17 +3678,17 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="15.6">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="65">
         <v>44095</v>
       </c>
-      <c r="C43" s="112" t="s">
+      <c r="C43" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D43" s="113" t="s">
+      <c r="D43" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E43" s="4">
@@ -3696,17 +3699,17 @@
       </c>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
+    <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="65">
         <v>44096</v>
       </c>
-      <c r="C44" s="112" t="s">
+      <c r="C44" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="113" t="s">
+      <c r="D44" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E44" s="4">
@@ -3724,7 +3727,7 @@
       <c r="B45" s="65">
         <v>44097</v>
       </c>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="94" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -3745,7 +3748,7 @@
       <c r="B46" s="65">
         <v>44098</v>
       </c>
-      <c r="C46" s="112" t="s">
+      <c r="C46" s="94" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -3766,7 +3769,7 @@
       <c r="B47" s="65">
         <v>44099</v>
       </c>
-      <c r="C47" s="112" t="s">
+      <c r="C47" s="94" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -3780,17 +3783,17 @@
       </c>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75">
+    <row r="48" spans="1:7" ht="15.6">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="65">
         <v>44100</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="95" t="s">
         <v>237</v>
       </c>
       <c r="E48" s="4">
@@ -3801,17 +3804,17 @@
       </c>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75">
+    <row r="49" spans="1:7" ht="15.6">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="65">
         <v>44101</v>
       </c>
-      <c r="C49" s="112" t="s">
+      <c r="C49" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="113" t="s">
+      <c r="D49" s="95" t="s">
         <v>237</v>
       </c>
       <c r="E49" s="4">
@@ -3836,15 +3839,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3947,15 +3950,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="72" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4308,7 +4311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="28.8">
       <c r="A18" s="79">
         <v>17</v>
       </c>
@@ -4461,15 +4464,15 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4495,7 +4498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -4516,7 +4519,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="45">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4537,7 +4540,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="45">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -4558,7 +4561,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4600,7 +4603,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -4621,7 +4624,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -4726,7 +4729,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -4789,7 +4792,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -4810,7 +4813,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="45">
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -4968,19 +4971,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5097,13 +5100,13 @@
       <c r="B6" s="89">
         <v>44079</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="85">
@@ -5112,11 +5115,11 @@
       <c r="B7" s="89">
         <v>44049</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="85">
@@ -5230,13 +5233,13 @@
       <c r="B13" s="89">
         <v>44086</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="85">
@@ -5245,11 +5248,11 @@
       <c r="B14" s="89">
         <v>44087</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="85">
@@ -5363,13 +5366,13 @@
       <c r="B20" s="89">
         <v>44093</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="95"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="85">
@@ -5378,11 +5381,11 @@
       <c r="B21" s="89">
         <v>44094</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="85">
@@ -5508,15 +5511,15 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5563,7 +5566,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -5584,7 +5587,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -5605,7 +5608,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -5633,13 +5636,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -5648,13 +5651,13 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="45">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5675,7 +5678,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5696,7 +5699,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5717,7 +5720,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5738,7 +5741,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -5766,13 +5769,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -5781,13 +5784,13 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="75">
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5808,7 +5811,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5829,7 +5832,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5850,7 +5853,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -5871,7 +5874,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="75">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -5899,13 +5902,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -5914,13 +5917,13 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="104"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="60">
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="107"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5941,7 +5944,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5962,7 +5965,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="30">
+    <row r="24" spans="1:7" s="1" customFormat="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5983,7 +5986,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6004,7 +6007,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6075,19 +6078,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6196,12 +6199,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="110"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6211,10 +6214,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6319,12 +6322,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="107"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6334,10 +6337,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -6442,12 +6445,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -6457,10 +6460,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
@@ -6557,6 +6560,25 @@
         <v>6</v>
       </c>
       <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27" s="19">
+        <v>44102</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4"/>
     </row>
     <row r="29" spans="1:7">
       <c r="D29" s="45" t="s">
@@ -6607,15 +6629,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA5920B-BB6F-4E88-AEAD-36B0E81DE4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1DD4B-92C8-4212-8EFD-7576C7C60ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -1031,7 +1031,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1289,6 +1289,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5505,10 +5508,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6028,38 +6031,59 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1"/>
+    <row r="27" spans="1:7" ht="43.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19">
+        <v>44102</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="114">
+        <v>1</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
     <row r="28" spans="1:7" s="1" customFormat="1"/>
     <row r="29" spans="1:7" s="1" customFormat="1"/>
     <row r="30" spans="1:7" s="1" customFormat="1"/>
     <row r="31" spans="1:7" s="1" customFormat="1"/>
     <row r="32" spans="1:7" s="1" customFormat="1"/>
-    <row r="35" spans="2:3">
-      <c r="C35" s="9" t="s">
+    <row r="33" spans="2:3" s="1" customFormat="1"/>
+    <row r="36" spans="2:3">
+      <c r="C36" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="10"/>
-      <c r="C36" t="s">
+    <row r="37" spans="2:3">
+      <c r="B37" s="10"/>
+      <c r="C37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="11"/>
-      <c r="C37" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" s="11"/>
+      <c r="C38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="12"/>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="13"/>
+      <c r="B39" s="12"/>
       <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="13"/>
+      <c r="C40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6078,8 +6102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A1DD4B-92C8-4212-8EFD-7576C7C60ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0EB9D-11EF-4543-A79B-F006E4A18DC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="240">
   <si>
     <t>No</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t>nMvar_clct</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya(nMVAR_Search)</t>
   </si>
 </sst>
 </file>
@@ -1236,6 +1239,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,9 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5103,13 +5106,13 @@
       <c r="B6" s="89">
         <v>44079</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="85">
@@ -5118,11 +5121,11 @@
       <c r="B7" s="89">
         <v>44049</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="85">
@@ -5236,13 +5239,13 @@
       <c r="B13" s="89">
         <v>44086</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="85">
@@ -5251,11 +5254,11 @@
       <c r="B14" s="89">
         <v>44087</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="85">
@@ -5369,13 +5372,13 @@
       <c r="B20" s="89">
         <v>44093</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="85">
@@ -5384,11 +5387,11 @@
       <c r="B21" s="89">
         <v>44094</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="85">
@@ -5511,7 +5514,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5639,13 +5642,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -5654,11 +5657,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
@@ -5772,13 +5775,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -5787,11 +5790,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
@@ -5905,13 +5908,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="103" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -5920,11 +5923,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
@@ -6044,7 +6047,7 @@
       <c r="D27" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="114">
+      <c r="E27" s="96">
         <v>1</v>
       </c>
       <c r="F27" s="81" t="s">
@@ -6052,7 +6055,27 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1"/>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19">
+        <v>44103</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
     <row r="29" spans="1:7" s="1" customFormat="1"/>
     <row r="30" spans="1:7" s="1" customFormat="1"/>
     <row r="31" spans="1:7" s="1" customFormat="1"/>
@@ -6223,12 +6246,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6238,10 +6261,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6346,12 +6369,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6361,10 +6384,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -6469,12 +6492,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -6484,10 +6507,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00261853-0616-4772-809B-1A982F6BE849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99D99C-7A11-4962-AFB7-14E8529B4ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="240">
   <si>
     <t>No</t>
   </si>
@@ -759,6 +759,9 @@
   </si>
   <si>
     <t xml:space="preserve">Login ,  nMVAR started                    </t>
+  </si>
+  <si>
+    <t>nMvar_clct,nMVAR_BKlog_bat</t>
   </si>
 </sst>
 </file>
@@ -1236,6 +1239,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1289,9 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4463,7 +4466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -4904,7 +4907,7 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="114">
+      <c r="B21" s="96">
         <v>44102</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -4925,7 +4928,7 @@
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="114">
+      <c r="B22" s="96">
         <v>44103</v>
       </c>
       <c r="C22" s="54" t="s">
@@ -5117,13 +5120,13 @@
       <c r="B6" s="88">
         <v>44079</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="84">
@@ -5132,11 +5135,11 @@
       <c r="B7" s="88">
         <v>44049</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="84">
@@ -5250,13 +5253,13 @@
       <c r="B13" s="88">
         <v>44086</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="84">
@@ -5265,11 +5268,11 @@
       <c r="B14" s="88">
         <v>44087</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="84">
@@ -5383,13 +5386,13 @@
       <c r="B20" s="88">
         <v>44093</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="84">
@@ -5398,11 +5401,11 @@
       <c r="B21" s="88">
         <v>44094</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="84">
@@ -5653,13 +5656,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -5668,11 +5671,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
@@ -5786,13 +5789,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="105"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -5801,11 +5804,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
@@ -5919,13 +5922,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="103" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -5934,11 +5937,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="108"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
@@ -6114,10 +6117,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6237,12 +6240,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6252,10 +6255,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="113"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6360,12 +6363,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6375,10 +6378,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -6483,12 +6486,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -6498,10 +6501,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
@@ -6618,33 +6621,54 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="D29" s="45" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="19">
+        <v>44102</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="E30" s="47"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="D49" s="45" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="C30" s="46"/>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="47"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="C31" s="48"/>
-      <c r="D31" t="s">
+    <row r="50" spans="3:4">
+      <c r="C50" s="46"/>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="48"/>
+      <c r="D51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="12"/>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="13"/>
-      <c r="D33" t="s">
+    <row r="52" spans="3:4">
+      <c r="C52" s="12"/>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="13"/>
+      <c r="D53" t="s">
         <v>9</v>
       </c>
     </row>

--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99D99C-7A11-4962-AFB7-14E8529B4ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E57292-C56C-4135-AB85-3FCB39A40D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="243">
   <si>
     <t>No</t>
   </si>
@@ -762,6 +762,15 @@
   </si>
   <si>
     <t>nMvar_clct,nMVAR_BKlog_bat</t>
+  </si>
+  <si>
+    <t>Correction Received for DRS-Daily of SSC11 due to encoding error during CSV file creation, rectified, tested and running smoothly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPA Samsung </t>
+  </si>
+  <si>
+    <t>DRS-Daily(SSC11)</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1043,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1296,6 +1305,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,19 +1583,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="111.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2153,9 +2163,32 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="7:7">
+    <row r="81" spans="1:7">
       <c r="G81" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>21</v>
+      </c>
+      <c r="B83" s="50">
+        <v>44103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="115">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +6152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/REVER_DailyTracker_20200929.xlsx
+++ b/REVER_DailyTracker_20200929.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E57292-C56C-4135-AB85-3FCB39A40D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D07B7-C211-4D7C-AA2C-E024EB733C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -771,6 +771,21 @@
   </si>
   <si>
     <t>DRS-Daily(SSC11)</t>
+  </si>
+  <si>
+    <t>Today worked on credit information if new service centre adding,correctly working but need to work on rerun if new center is added</t>
+  </si>
+  <si>
+    <t>credit detail adding filters and filter condition</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>Today worked on credit information if new svc center added then while rerunning on the same day had some issues fixed it</t>
+  </si>
+  <si>
+    <t>tracking/start had few changed technician's latitude had to be passed,also job's status need to be updated</t>
   </si>
 </sst>
 </file>
@@ -781,12 +796,19 @@
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,16 +1060,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1055,12 +1077,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,16 +1115,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1111,14 +1133,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1131,12 +1153,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1186,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1201,13 +1223,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1218,31 +1240,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1251,61 +1273,65 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1585,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2181,7 +2207,7 @@
       <c r="D83" t="s">
         <v>242</v>
       </c>
-      <c r="E83" s="115">
+      <c r="E83" s="97">
         <v>1</v>
       </c>
       <c r="F83" t="s">
@@ -3983,10 +4009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4486,6 +4512,68 @@
         <v>0.5</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="50">
+        <v>44103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="72">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="D29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="43.2">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" s="50">
+        <v>44104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="72">
+        <v>1</v>
+      </c>
+      <c r="F30" s="116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="43.2">
+      <c r="B32" s="50">
+        <v>44104</v>
+      </c>
+      <c r="C32" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="72">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="116" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5153,13 +5241,13 @@
       <c r="B6" s="88">
         <v>44079</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="84">
@@ -5168,11 +5256,11 @@
       <c r="B7" s="88">
         <v>44049</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="84">
@@ -5286,13 +5374,13 @@
       <c r="B13" s="88">
         <v>44086</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="84">
@@ -5301,11 +5389,11 @@
       <c r="B14" s="88">
         <v>44087</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="102"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
       <c r="A15" s="84">
@@ -5419,13 +5507,13 @@
       <c r="B20" s="88">
         <v>44093</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="84">
@@ -5434,11 +5522,11 @@
       <c r="B21" s="88">
         <v>44094</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="84">
@@ -5689,13 +5777,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -5704,11 +5792,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
@@ -5822,13 +5910,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -5837,11 +5925,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
@@ -5955,13 +6043,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -5970,11 +6058,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="108"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
@@ -6273,12 +6361,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -6288,10 +6376,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="114"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -6396,12 +6484,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -6411,10 +6499,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="114"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -6519,12 +6607,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -6534,10 +6622,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
